--- a/medicine/Mort/Cimetière_arménien_(Rostov-sur-le-Don)/Cimetière_arménien_(Rostov-sur-le-Don).xlsx
+++ b/medicine/Mort/Cimetière_arménien_(Rostov-sur-le-Don)/Cimetière_arménien_(Rostov-sur-le-Don).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_(Rostov-sur-le-Don)</t>
+          <t>Cimetière_arménien_(Rostov-sur-le-Don)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière arménien de Rostov-sur-le-Don (officiellement le cimetière du quartier Proletarsk) est un cimetière municipal de l’ancienne ville de Nakhitchevan-sur-le-Don.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_arm%C3%A9nien_(Rostov-sur-le-Don)</t>
+          <t>Cimetière_arménien_(Rostov-sur-le-Don)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière existe depuis 1749 sous le nom de cimetière arménien, c’est sous cette appellation historique qu’il est le plus connu. Il s’étend sur 14 hectares autour de l’église Saint-Jean-le-Précurseur érigée en 1875-1881.
 Un certain nombre de monuments funéraires sont l’œuvre de Sylvestre Antonio Tonitto, sculpteur italien de Rostov-sur-le-Don. 
-Aux côtés des tombes individuelles se trouvent également des tombes collectives de soldats tombés lors de la Seconde Guerre mondiale[1].
-Longtemps délaissé le cimetière est en mauvais état mais des travaux de restauration sont en cours[2].
+Aux côtés des tombes individuelles se trouvent également des tombes collectives de soldats tombés lors de la Seconde Guerre mondiale.
+Longtemps délaissé le cimetière est en mauvais état mais des travaux de restauration sont en cours.
 Le cimetière est, depuis 1998, de nouveau en activité est des inhumations s’y déroulent.
 </t>
         </is>
